--- a/Описание протокола программатора.xlsx
+++ b/Описание протокола программатора.xlsx
@@ -273,7 +273,7 @@
     <t>SARAM0  : origin = 0010000h, length = 0030000h</t>
   </si>
   <si>
-    <t>SRAM0 = 256Kb</t>
+    <t>SRAM0 = 192Kb</t>
   </si>
 </sst>
 </file>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF37" sqref="AF37"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH39" sqref="AH39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Описание протокола программатора.xlsx
+++ b/Описание протокола программатора.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Таблица загрузки TMSc5509" sheetId="2" r:id="rId2"/>
+    <sheet name="Адресация в АЭ" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="197">
   <si>
     <t>RTA</t>
   </si>
@@ -274,18 +275,454 @@
   </si>
   <si>
     <t>SRAM0 = 192Kb</t>
+  </si>
+  <si>
+    <t>Таблица загрузки, формируемая hexutility</t>
+  </si>
+  <si>
+    <t>32-битный регистр АДРЕСА точки входа программы (адрес функции main)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32-битный регистр количества настроек </t>
+  </si>
+  <si>
+    <t>16-битный регистр адреса</t>
+  </si>
+  <si>
+    <t>16-битный регистр данных</t>
+  </si>
+  <si>
+    <t>16-битный регистр задержки</t>
+  </si>
+  <si>
+    <t>16-битный регистр количество CPU циклов задержки (от 1 до 65536)</t>
+  </si>
+  <si>
+    <t>Байт данных</t>
+  </si>
+  <si>
+    <t>Смещение адреса компонентов заголовка, байт</t>
+  </si>
+  <si>
+    <t>Смещение байт данных адреса внутри компонента заголовка, байт</t>
+  </si>
+  <si>
+    <r>
+      <t>32-битный регистр начального адреса текущей секции (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>32-битный регистр с количеством нулевых байт (окончание секции). В конце файла с прошивкой должно быть 4 байта нулей</t>
+  </si>
+  <si>
+    <r>
+      <t>32-битный регистр количества байт текущей секции (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 4</t>
+    </r>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>Примечания</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Эти 4 слова появляются только если значение регистра настроек &gt; 0 (например, если значение равно 2, то в таблице заголовка появятся 8 пар слов), при 0, поля просто </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>не будут</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> добавлены</t>
+    </r>
+  </si>
+  <si>
+    <t>bootorg ПЛИС:</t>
+  </si>
+  <si>
+    <t>0x0004</t>
+  </si>
+  <si>
+    <t>bootord DSP:</t>
+  </si>
+  <si>
+    <t>0x0005</t>
+  </si>
+  <si>
+    <t>0x0006</t>
+  </si>
+  <si>
+    <t>PAGES</t>
+  </si>
+  <si>
+    <t>0x8000</t>
+  </si>
+  <si>
+    <t>0xFFFF</t>
+  </si>
+  <si>
+    <t>0x0001</t>
+  </si>
+  <si>
+    <t>0x0002</t>
+  </si>
+  <si>
+    <t>0x0003</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>ТКБ-860</t>
+  </si>
+  <si>
+    <t>ТКБ-995</t>
+  </si>
+  <si>
+    <t>0x0007</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Паспортные значения ГН</t>
+  </si>
+  <si>
+    <t>Параметры полетного задания</t>
+  </si>
+  <si>
+    <t>0x40</t>
+  </si>
+  <si>
+    <t>0xA0</t>
+  </si>
+  <si>
+    <t>size:0x60</t>
+  </si>
+  <si>
+    <t>0x00</t>
+  </si>
+  <si>
+    <t>Программная команда (количество пар)</t>
+  </si>
+  <si>
+    <t>Програманая команда</t>
+  </si>
+  <si>
+    <t>0x0C</t>
+  </si>
+  <si>
+    <t>size:0x04</t>
+  </si>
+  <si>
+    <t>size:0xA</t>
+  </si>
+  <si>
+    <t>size:0x01F4</t>
+  </si>
+  <si>
+    <t>ID_RG</t>
+  </si>
+  <si>
+    <t>AV_REGS</t>
+  </si>
+  <si>
+    <t>Параметры</t>
+  </si>
+  <si>
+    <t>СRC32</t>
+  </si>
+  <si>
+    <t>0xFFFC</t>
+  </si>
+  <si>
+    <t>Адресация памяти АЭ</t>
+  </si>
+  <si>
+    <t>0x0008</t>
+  </si>
+  <si>
+    <t>Описание переменной ID_RG и AV_REGS</t>
+  </si>
+  <si>
+    <t>Код</t>
+  </si>
+  <si>
+    <t>Переменная</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>0x03E3</t>
+  </si>
+  <si>
+    <t>860 - изделие ТКБ-860 (с ГН)</t>
+  </si>
+  <si>
+    <t>995 - изделие ТКБ-995 (с СНС и ВМ)</t>
+  </si>
+  <si>
+    <t>0x035C</t>
+  </si>
+  <si>
+    <t>изделие 860</t>
+  </si>
+  <si>
+    <t>изделие 860 и 995</t>
+  </si>
+  <si>
+    <t>Команда "установка адреса"</t>
+  </si>
+  <si>
+    <t>Ответное слово №2, биты [15…11]</t>
+  </si>
+  <si>
+    <t>Протокол обмена</t>
+  </si>
+  <si>
+    <t>ID_REG</t>
+  </si>
+  <si>
+    <t>SA0</t>
+  </si>
+  <si>
+    <t>SA1</t>
+  </si>
+  <si>
+    <t>SA2</t>
+  </si>
+  <si>
+    <t>SA3</t>
+  </si>
+  <si>
+    <t>SA4</t>
+  </si>
+  <si>
+    <t>SA5</t>
+  </si>
+  <si>
+    <t>SA6</t>
+  </si>
+  <si>
+    <t>SA7</t>
+  </si>
+  <si>
+    <t>SA8</t>
+  </si>
+  <si>
+    <t>SA9</t>
+  </si>
+  <si>
+    <t>SA10</t>
+  </si>
+  <si>
+    <t>SA11</t>
+  </si>
+  <si>
+    <t>SA12</t>
+  </si>
+  <si>
+    <t>SA13</t>
+  </si>
+  <si>
+    <t>SA14</t>
+  </si>
+  <si>
+    <t>SA15</t>
+  </si>
+  <si>
+    <t>SA16</t>
+  </si>
+  <si>
+    <t>SA17</t>
+  </si>
+  <si>
+    <t>SA18</t>
+  </si>
+  <si>
+    <t>Средние значения ГН</t>
+  </si>
+  <si>
+    <t>SA19</t>
+  </si>
+  <si>
+    <t>size:0x02</t>
+  </si>
+  <si>
+    <t>size:0x01</t>
+  </si>
+  <si>
+    <t>параметры запуска (какие-то)</t>
+  </si>
+  <si>
+    <t>ТКБ860+2 режима</t>
+  </si>
+  <si>
+    <t>17EA</t>
+  </si>
+  <si>
+    <t>ТКБ995+2 режима</t>
+  </si>
+  <si>
+    <t>37EA</t>
+  </si>
+  <si>
+    <t>07EA</t>
+  </si>
+  <si>
+    <t>27EA</t>
+  </si>
+  <si>
+    <t>SA20</t>
+  </si>
+  <si>
+    <t>SA21</t>
+  </si>
+  <si>
+    <t>SA22</t>
+  </si>
+  <si>
+    <t>SA23</t>
+  </si>
+  <si>
+    <t>прерыдущая загруженная (ТКБ-995 или ТКБ-860</t>
+  </si>
+  <si>
+    <t>Счетчик времени</t>
+  </si>
+  <si>
+    <t>0x100</t>
+  </si>
+  <si>
+    <t>0x1</t>
+  </si>
+  <si>
+    <t>L_AV_REGS</t>
+  </si>
+  <si>
+    <t>Буферная память</t>
+  </si>
+  <si>
+    <t>0x000B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -333,6 +770,24 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -366,7 +821,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -374,11 +829,449 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -389,21 +1282,279 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,8 +1859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH39" sqref="AH39"/>
+    <sheetView topLeftCell="E43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,29 +2062,29 @@
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
       <c r="F13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="18" t="s">
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -986,20 +2137,20 @@
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C15" s="18">
+      <c r="C15" s="67">
         <v>10</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="H15" s="18">
+      <c r="D15" s="67"/>
+      <c r="H15" s="67">
         <v>16</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="M15" s="18">
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="M15" s="67">
         <v>20</v>
       </c>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
       <c r="Y15" s="15" t="s">
         <v>61</v>
       </c>
@@ -2053,24 +3204,1673 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+    </row>
+    <row r="3" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="71"/>
+      <c r="B4" s="24">
+        <v>0</v>
+      </c>
+      <c r="C4" s="24">
+        <v>1</v>
+      </c>
+      <c r="D4" s="24">
+        <v>2</v>
+      </c>
+      <c r="E4" s="26">
+        <v>3</v>
+      </c>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>0</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>4</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>8</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="73"/>
+      <c r="F7" s="74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>12</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="73"/>
+      <c r="F8" s="74"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>16</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>20</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="28"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
+        <v>24</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="28"/>
+    </row>
+    <row r="13" spans="1:6" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:E9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="36.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="14" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="P1" s="94" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="96"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="83"/>
+      <c r="C2" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" s="30"/>
+      <c r="P2" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="81"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="78"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="81">
+        <v>0</v>
+      </c>
+      <c r="J3" s="90" t="s">
+        <v>142</v>
+      </c>
+      <c r="K3" s="91"/>
+      <c r="L3" s="92"/>
+      <c r="P3" s="78" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="81"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="78"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="81"/>
+      <c r="J4" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="P4" s="21">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>14</v>
+      </c>
+      <c r="R4" s="20">
+        <v>13</v>
+      </c>
+      <c r="S4" s="20">
+        <v>12</v>
+      </c>
+      <c r="T4" s="37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="78"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="J5" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="N5" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="O5" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="P5" s="97">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="101">
+        <v>0</v>
+      </c>
+      <c r="T5" s="102"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="78"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="84" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="81">
+        <v>1</v>
+      </c>
+      <c r="J6" s="78"/>
+      <c r="K6" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="P6" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>0</v>
+      </c>
+      <c r="R6" s="20">
+        <v>0</v>
+      </c>
+      <c r="S6" s="20">
+        <v>0</v>
+      </c>
+      <c r="T6" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="78"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="81"/>
+      <c r="J7" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="N7" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="O7" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="P7" s="97">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="99">
+        <v>2</v>
+      </c>
+      <c r="T7" s="100"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="78"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="35"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="P8" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>0</v>
+      </c>
+      <c r="R8" s="20">
+        <v>1</v>
+      </c>
+      <c r="S8" s="20">
+        <v>1</v>
+      </c>
+      <c r="T8" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="78"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="81">
+        <v>2</v>
+      </c>
+      <c r="P9" s="79" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="T9" s="103"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="78"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="81"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="78"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="78"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="78"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="81"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="78"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="78"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="78"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="81"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="78"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="78"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="84" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="78"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="81"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="78"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="35"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="78"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="78"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="81"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="78"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="78"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="84" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="78"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="81"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="78"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="33"/>
+      <c r="E26" s="35"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="78"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="78"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="81"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="78"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="78"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="84" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="78"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="81"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="72"/>
+      <c r="C32" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="78"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="88"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="78"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="81"/>
+      <c r="F34" s="88"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="78"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="88"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="78"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="84" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="88"/>
+      <c r="G36" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="H36" s="36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="78"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="81"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="H37" s="72"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="78"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="33"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="109"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="78"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="G39" s="87"/>
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="78"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="81"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="78"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="78"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42" s="86" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42" s="72"/>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="78"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" s="81"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="78"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="33"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="78"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" s="88"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="78"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="81"/>
+      <c r="F46" s="88"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="78"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="88"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="78"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" s="88"/>
+      <c r="G48" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="H48" s="36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="78"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" s="81"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="H49" s="84"/>
+    </row>
+    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="72"/>
+      <c r="C50" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" s="33"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="G50" s="105" t="s">
+        <v>133</v>
+      </c>
+      <c r="H50" s="106"/>
+      <c r="I50" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="J50" s="36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="78"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="86" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" s="81">
+        <v>10</v>
+      </c>
+      <c r="F51" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="J51" s="72"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="78"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="81"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="78"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="78"/>
+      <c r="B54" s="72"/>
+      <c r="C54" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" s="81">
+        <v>11</v>
+      </c>
+      <c r="F54" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="G54" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="H54" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="I54" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="J54" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="K54" s="66" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="78"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" s="81"/>
+      <c r="F55" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="I55" s="72"/>
+      <c r="J55" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="K55" s="72"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="78"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="33"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="86"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="72"/>
+      <c r="I56" s="72"/>
+      <c r="J56" s="72"/>
+      <c r="K56" s="72"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="78"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57" s="81">
+        <v>12</v>
+      </c>
+      <c r="F57" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="G57" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="78"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E58" s="81"/>
+      <c r="F58" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="G58" s="72"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="78"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="48"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="78"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="86" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E60" s="81">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="78"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E61" s="81"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="78"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" s="108"/>
+      <c r="E62" s="112"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="78"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="86" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E63" s="81">
+        <v>14</v>
+      </c>
+      <c r="F63" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="G63" s="62" t="s">
+        <v>178</v>
+      </c>
+      <c r="H63" s="107"/>
+      <c r="I63" s="63"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="78"/>
+      <c r="B64" s="72"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E64" s="81"/>
+      <c r="F64" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="G64" s="72"/>
+      <c r="H64" s="69"/>
+      <c r="I64" s="69"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="78"/>
+      <c r="B65" s="72"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="35"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="78"/>
+      <c r="B66" s="72"/>
+      <c r="C66" s="86" t="s">
+        <v>187</v>
+      </c>
+      <c r="D66" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E66" s="81">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="78"/>
+      <c r="B67" s="72"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E67" s="81"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="104" t="s">
+        <v>195</v>
+      </c>
+      <c r="B68" s="87"/>
+      <c r="C68" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="D68" s="33"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="87" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="113"/>
+      <c r="B69" s="88"/>
+      <c r="C69" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="D69" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E69" s="81">
+        <v>16</v>
+      </c>
+      <c r="F69" s="88"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="113"/>
+      <c r="B70" s="88"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70" s="81"/>
+      <c r="F70" s="88"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="113"/>
+      <c r="B71" s="88"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="88"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="113"/>
+      <c r="B72" s="88"/>
+      <c r="C72" s="87" t="s">
+        <v>189</v>
+      </c>
+      <c r="D72" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E72" s="81">
+        <v>17</v>
+      </c>
+      <c r="F72" s="88"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="114"/>
+      <c r="B73" s="115"/>
+      <c r="C73" s="115"/>
+      <c r="D73" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="E73" s="103"/>
+      <c r="F73" s="93"/>
+    </row>
+  </sheetData>
+  <mergeCells count="81">
+    <mergeCell ref="A68:B73"/>
+    <mergeCell ref="A50:B67"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F68:F73"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="F39:G40"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="F42:G43"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F55:G56"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A32:B49"/>
+    <mergeCell ref="F32:F37"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H55:I56"/>
+    <mergeCell ref="F51:H52"/>
+    <mergeCell ref="I51:J52"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F44:F49"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="J55:K56"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A2:B31"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E24:E25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="I2:AB9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="9:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="9:28" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="M3" s="53">
+        <v>15</v>
+      </c>
+      <c r="N3" s="54">
+        <v>14</v>
+      </c>
+      <c r="O3" s="54">
+        <v>13</v>
+      </c>
+      <c r="P3" s="54">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="57">
+        <v>11</v>
+      </c>
+      <c r="R3" s="58">
+        <v>10</v>
+      </c>
+      <c r="S3" s="58">
+        <v>9</v>
+      </c>
+      <c r="T3" s="58">
+        <v>8</v>
+      </c>
+      <c r="U3" s="58">
+        <v>7</v>
+      </c>
+      <c r="V3" s="58">
+        <v>6</v>
+      </c>
+      <c r="W3" s="58">
+        <v>5</v>
+      </c>
+      <c r="X3" s="58">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="58">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="58">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="58">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="9:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="K4" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="M4" s="21">
+        <v>0</v>
+      </c>
+      <c r="N4" s="20">
+        <v>0</v>
+      </c>
+      <c r="O4" s="20">
+        <v>0</v>
+      </c>
+      <c r="P4" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="37">
+        <v>0</v>
+      </c>
+      <c r="R4" s="52">
+        <v>1</v>
+      </c>
+      <c r="S4" s="52">
+        <v>1</v>
+      </c>
+      <c r="T4" s="52">
+        <v>1</v>
+      </c>
+      <c r="U4" s="52">
+        <v>1</v>
+      </c>
+      <c r="V4" s="52">
+        <v>1</v>
+      </c>
+      <c r="W4" s="52">
+        <v>1</v>
+      </c>
+      <c r="X4" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="52">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="52">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="9:28" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K5" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="M5" s="55">
+        <v>0</v>
+      </c>
+      <c r="N5" s="40">
+        <v>0</v>
+      </c>
+      <c r="O5" s="40">
+        <v>1</v>
+      </c>
+      <c r="P5" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="56">
+        <v>0</v>
+      </c>
+      <c r="R5" s="52">
+        <v>1</v>
+      </c>
+      <c r="S5" s="52">
+        <v>1</v>
+      </c>
+      <c r="T5" s="52">
+        <v>1</v>
+      </c>
+      <c r="U5" s="52">
+        <v>1</v>
+      </c>
+      <c r="V5" s="52">
+        <v>1</v>
+      </c>
+      <c r="W5" s="52">
+        <v>1</v>
+      </c>
+      <c r="X5" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="52">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="52">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="9:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="9:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="K8" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="M8" s="59">
+        <v>0</v>
+      </c>
+      <c r="N8" s="60">
+        <v>0</v>
+      </c>
+      <c r="O8" s="60">
+        <v>0</v>
+      </c>
+      <c r="P8" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="61">
+        <v>0</v>
+      </c>
+      <c r="R8" s="30">
+        <v>1</v>
+      </c>
+      <c r="S8" s="30">
+        <v>1</v>
+      </c>
+      <c r="T8" s="30">
+        <v>1</v>
+      </c>
+      <c r="U8" s="30">
+        <v>1</v>
+      </c>
+      <c r="V8" s="30">
+        <v>1</v>
+      </c>
+      <c r="W8" s="30">
+        <v>1</v>
+      </c>
+      <c r="X8" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="30">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="9:28" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="M9" s="55">
+        <v>0</v>
+      </c>
+      <c r="N9" s="40">
+        <v>0</v>
+      </c>
+      <c r="O9" s="40">
+        <v>1</v>
+      </c>
+      <c r="P9" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="56">
+        <v>0</v>
+      </c>
+      <c r="R9" s="30">
+        <v>1</v>
+      </c>
+      <c r="S9" s="30">
+        <v>1</v>
+      </c>
+      <c r="T9" s="30">
+        <v>1</v>
+      </c>
+      <c r="U9" s="30">
+        <v>1</v>
+      </c>
+      <c r="V9" s="30">
+        <v>1</v>
+      </c>
+      <c r="W9" s="30">
+        <v>1</v>
+      </c>
+      <c r="X9" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="30">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="30">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Описание протокола программатора.xlsx
+++ b/Описание протокола программатора.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="198">
   <si>
     <t>RTA</t>
   </si>
@@ -703,6 +703,9 @@
   </si>
   <si>
     <t>0x000B</t>
+  </si>
+  <si>
+    <t>BNA_FIX</t>
   </si>
 </sst>
 </file>
@@ -821,7 +824,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1267,11 +1270,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1413,12 +1451,44 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1428,71 +1498,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1521,39 +1579,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2062,29 +2109,29 @@
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
       <c r="F13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="68" t="s">
+      <c r="G13" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="67" t="s">
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -2137,20 +2184,20 @@
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C15" s="67">
+      <c r="C15" s="73">
         <v>10</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="H15" s="67">
+      <c r="D15" s="73"/>
+      <c r="H15" s="73">
         <v>16</v>
       </c>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="M15" s="67">
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="M15" s="73">
         <v>20</v>
       </c>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
       <c r="Y15" s="15" t="s">
         <v>61</v>
       </c>
@@ -3221,31 +3268,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
     </row>
     <row r="3" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="19" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
+      <c r="A4" s="83"/>
       <c r="B4" s="24">
         <v>0</v>
       </c>
@@ -3264,39 +3311,39 @@
       <c r="A5" s="21">
         <v>0</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="73"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="76"/>
       <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="73"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="28"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>8</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72" t="s">
+      <c r="C7" s="75"/>
+      <c r="D7" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="74" t="s">
+      <c r="E7" s="76"/>
+      <c r="F7" s="77" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3304,38 +3351,38 @@
       <c r="A8" s="21">
         <v>12</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72" t="s">
+      <c r="C8" s="75"/>
+      <c r="D8" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="73"/>
-      <c r="F8" s="74"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="77"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>16</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="73"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="76"/>
       <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>20</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="73"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="76"/>
       <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3378,16 +3425,21 @@
       <c r="A13" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
       <c r="F13" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="B13:E13"/>
@@ -3396,11 +3448,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3411,13 +3458,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="36.85546875" customWidth="1"/>
@@ -3428,26 +3475,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="111" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="P1" s="94" t="s">
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="P1" s="102" t="s">
         <v>154</v>
       </c>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="96"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="104"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="83"/>
+      <c r="B2" s="116"/>
       <c r="C2" s="45" t="s">
         <v>65</v>
       </c>
@@ -3456,47 +3503,47 @@
         <v>108</v>
       </c>
       <c r="M2" s="30"/>
-      <c r="P2" s="78" t="s">
+      <c r="P2" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="81"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="91"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72" t="s">
+      <c r="A3" s="90"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75" t="s">
         <v>156</v>
       </c>
       <c r="D3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="81">
-        <v>0</v>
-      </c>
-      <c r="J3" s="90" t="s">
+      <c r="E3" s="91">
+        <v>0</v>
+      </c>
+      <c r="J3" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="K3" s="91"/>
-      <c r="L3" s="92"/>
-      <c r="P3" s="78" t="s">
+      <c r="K3" s="113"/>
+      <c r="L3" s="114"/>
+      <c r="P3" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="81"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="91"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
       <c r="D4" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="81"/>
+      <c r="E4" s="91"/>
       <c r="J4" s="21" t="s">
         <v>144</v>
       </c>
@@ -3523,12 +3570,12 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="78"/>
-      <c r="B5" s="72"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
       <c r="E5" s="34"/>
-      <c r="J5" s="78" t="s">
+      <c r="J5" s="90" t="s">
         <v>135</v>
       </c>
       <c r="K5" s="25" t="s">
@@ -3543,29 +3590,29 @@
       <c r="O5" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="P5" s="97">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="101">
-        <v>0</v>
-      </c>
-      <c r="T5" s="102"/>
+      <c r="P5" s="105">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="109">
+        <v>0</v>
+      </c>
+      <c r="T5" s="110"/>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="78"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="84" t="s">
+      <c r="A6" s="90"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="95" t="s">
         <v>157</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="81">
-        <v>1</v>
-      </c>
-      <c r="J6" s="78"/>
+      <c r="E6" s="91">
+        <v>1</v>
+      </c>
+      <c r="J6" s="90"/>
       <c r="K6" s="20" t="s">
         <v>146</v>
       </c>
@@ -3589,14 +3636,14 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="78"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="85"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="96"/>
       <c r="D7" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="J7" s="78" t="s">
+      <c r="E7" s="91"/>
+      <c r="J7" s="90" t="s">
         <v>136</v>
       </c>
       <c r="K7" s="20" t="s">
@@ -3611,25 +3658,25 @@
       <c r="O7" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="P7" s="97">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="98"/>
-      <c r="S7" s="99">
+      <c r="P7" s="105">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="107">
         <v>2</v>
       </c>
-      <c r="T7" s="100"/>
+      <c r="T7" s="108"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="78"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="43" t="s">
         <v>111</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="35"/>
-      <c r="J8" s="79"/>
+      <c r="J8" s="97"/>
       <c r="K8" s="40" t="s">
         <v>112</v>
       </c>
@@ -3653,68 +3700,68 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="78"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72" t="s">
+      <c r="A9" s="90"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75" t="s">
         <v>158</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="91">
         <v>2</v>
       </c>
-      <c r="P9" s="79" t="s">
+      <c r="P9" s="97" t="s">
         <v>155</v>
       </c>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80" t="s">
+      <c r="Q9" s="98"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="T9" s="103"/>
+      <c r="T9" s="92"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="78"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="81"/>
+      <c r="E10" s="91"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="78"/>
-      <c r="B11" s="72"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="75"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="34"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="84" t="s">
+      <c r="A12" s="90"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="95" t="s">
         <v>159</v>
       </c>
       <c r="D12" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="81">
+      <c r="E12" s="91">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="78"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="85"/>
+      <c r="A13" s="90"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="96"/>
       <c r="D13" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="81"/>
+      <c r="E13" s="91"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="78"/>
-      <c r="B14" s="72"/>
+      <c r="A14" s="90"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="43" t="s">
         <v>112</v>
       </c>
@@ -3722,59 +3769,59 @@
       <c r="E14" s="35"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="78"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72" t="s">
+      <c r="A15" s="90"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75" t="s">
         <v>160</v>
       </c>
       <c r="D15" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="81">
+      <c r="E15" s="91">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="81"/>
+      <c r="E16" s="91"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="78"/>
-      <c r="B17" s="72"/>
+      <c r="A17" s="90"/>
+      <c r="B17" s="75"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="34"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="78"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="84" t="s">
+      <c r="A18" s="90"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="95" t="s">
         <v>161</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="81">
+      <c r="E18" s="91">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="78"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="85"/>
+      <c r="A19" s="90"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="96"/>
       <c r="D19" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="81"/>
+      <c r="E19" s="91"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="78"/>
-      <c r="B20" s="72"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="75"/>
       <c r="C20" s="43" t="s">
         <v>113</v>
       </c>
@@ -3782,59 +3829,59 @@
       <c r="E20" s="35"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="78"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72" t="s">
+      <c r="A21" s="90"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75" t="s">
         <v>162</v>
       </c>
       <c r="D21" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="81">
+      <c r="E21" s="91">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="78"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
+      <c r="A22" s="90"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="81"/>
+      <c r="E22" s="91"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="78"/>
-      <c r="B23" s="72"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="75"/>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="34"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="78"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="84" t="s">
+      <c r="A24" s="90"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="95" t="s">
         <v>163</v>
       </c>
       <c r="D24" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="81">
+      <c r="E24" s="91">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="78"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="85"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="96"/>
       <c r="D25" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="81"/>
+      <c r="E25" s="91"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="78"/>
-      <c r="B26" s="72"/>
+      <c r="A26" s="90"/>
+      <c r="B26" s="75"/>
       <c r="C26" s="43" t="s">
         <v>104</v>
       </c>
@@ -3842,115 +3889,115 @@
       <c r="E26" s="35"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="78"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72" t="s">
+      <c r="A27" s="90"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75" t="s">
         <v>164</v>
       </c>
       <c r="D27" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="81">
+      <c r="E27" s="91">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="78"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="81"/>
+      <c r="E28" s="91"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="78"/>
-      <c r="B29" s="72"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="75"/>
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="34"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="78"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="84" t="s">
+      <c r="A30" s="90"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="95" t="s">
         <v>165</v>
       </c>
       <c r="D30" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="81">
+      <c r="E30" s="91">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="78"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="85"/>
+      <c r="A31" s="90"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="96"/>
       <c r="D31" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="81"/>
+      <c r="E31" s="91"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="78" t="s">
+      <c r="A32" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="72"/>
+      <c r="B32" s="75"/>
       <c r="C32" s="43" t="s">
         <v>106</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="35"/>
-      <c r="F32" s="87" t="s">
+      <c r="F32" s="85" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="78"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72" t="s">
+      <c r="A33" s="90"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75" t="s">
         <v>166</v>
       </c>
       <c r="D33" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="81" t="s">
+      <c r="E33" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="88"/>
+      <c r="F33" s="87"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="78"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
+      <c r="A34" s="90"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
       <c r="D34" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="81"/>
-      <c r="F34" s="88"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="87"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="78"/>
-      <c r="B35" s="72"/>
+      <c r="A35" s="90"/>
+      <c r="B35" s="75"/>
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="34"/>
-      <c r="F35" s="88"/>
+      <c r="F35" s="87"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="78"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="84" t="s">
+      <c r="A36" s="90"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="95" t="s">
         <v>167</v>
       </c>
       <c r="D36" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="81" t="s">
+      <c r="E36" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="88"/>
+      <c r="F36" s="87"/>
       <c r="G36" s="36" t="s">
         <v>139</v>
       </c>
@@ -3959,64 +4006,64 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="78"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="85"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="96"/>
       <c r="D37" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="E37" s="81"/>
+      <c r="E37" s="91"/>
       <c r="F37" s="93"/>
-      <c r="G37" s="72" t="s">
+      <c r="G37" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="H37" s="72"/>
+      <c r="H37" s="75"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="78"/>
-      <c r="B38" s="72"/>
+      <c r="A38" s="90"/>
+      <c r="B38" s="75"/>
       <c r="C38" s="43" t="s">
         <v>107</v>
       </c>
       <c r="D38" s="33"/>
       <c r="E38" s="34"/>
-      <c r="F38" s="109"/>
+      <c r="F38" s="70"/>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="78"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="72" t="s">
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="90"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75" t="s">
         <v>168</v>
       </c>
       <c r="D39" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="81" t="s">
+      <c r="E39" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="F39" s="110" t="s">
+      <c r="F39" s="84" t="s">
         <v>179</v>
       </c>
-      <c r="G39" s="87"/>
-      <c r="H39" s="18"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="72"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="78"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="72"/>
+      <c r="A40" s="90"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
       <c r="D40" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="81"/>
-      <c r="F40" s="111"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="99"/>
       <c r="G40" s="93"/>
-      <c r="H40" s="18"/>
+      <c r="H40" s="72"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="78"/>
-      <c r="B41" s="72"/>
+      <c r="A41" s="90"/>
+      <c r="B41" s="75"/>
       <c r="C41" s="64"/>
       <c r="D41" s="33"/>
       <c r="E41" s="34"/>
@@ -4029,92 +4076,92 @@
       <c r="H41" s="18"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="78"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="84" t="s">
+      <c r="A42" s="90"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="95" t="s">
         <v>169</v>
       </c>
       <c r="D42" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="E42" s="81" t="s">
+      <c r="E42" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="F42" s="86" t="s">
+      <c r="F42" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="G42" s="72"/>
+      <c r="G42" s="75"/>
       <c r="H42" s="18"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="78"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="85"/>
+      <c r="A43" s="90"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="96"/>
       <c r="D43" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="E43" s="81"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="72"/>
+      <c r="E43" s="91"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="75"/>
       <c r="H43" s="18"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="78"/>
-      <c r="B44" s="72"/>
+      <c r="A44" s="90"/>
+      <c r="B44" s="75"/>
       <c r="C44" s="43" t="s">
         <v>120</v>
       </c>
       <c r="D44" s="33"/>
       <c r="E44" s="35"/>
-      <c r="F44" s="87" t="s">
+      <c r="F44" s="117" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="78"/>
-      <c r="B45" s="72"/>
-      <c r="C45" s="72" t="s">
+      <c r="A45" s="90"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="75" t="s">
         <v>170</v>
       </c>
       <c r="D45" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="81" t="s">
+      <c r="E45" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="F45" s="88"/>
+      <c r="F45" s="118"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="78"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="72"/>
+      <c r="A46" s="90"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E46" s="81"/>
-      <c r="F46" s="88"/>
+      <c r="E46" s="91"/>
+      <c r="F46" s="118"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="78"/>
-      <c r="B47" s="72"/>
+      <c r="A47" s="90"/>
+      <c r="B47" s="75"/>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="34"/>
-      <c r="F47" s="88"/>
+      <c r="F47" s="118"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="78"/>
-      <c r="B48" s="72"/>
-      <c r="C48" s="84" t="s">
+      <c r="A48" s="90"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="95" t="s">
         <v>171</v>
       </c>
       <c r="D48" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="E48" s="81" t="s">
+      <c r="E48" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="F48" s="88"/>
+      <c r="F48" s="118"/>
       <c r="G48" s="36" t="s">
         <v>139</v>
       </c>
@@ -4123,24 +4170,24 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="78"/>
-      <c r="B49" s="72"/>
-      <c r="C49" s="85"/>
+      <c r="A49" s="90"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="96"/>
       <c r="D49" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="81"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="84" t="s">
+      <c r="E49" s="91"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="H49" s="84"/>
+      <c r="H49" s="95"/>
     </row>
     <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="78" t="s">
+      <c r="A50" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="B50" s="72"/>
+      <c r="B50" s="75"/>
       <c r="C50" s="43" t="s">
         <v>141</v>
       </c>
@@ -4149,10 +4196,10 @@
       <c r="F50" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="G50" s="105" t="s">
+      <c r="G50" s="100" t="s">
         <v>133</v>
       </c>
-      <c r="H50" s="106"/>
+      <c r="H50" s="101"/>
       <c r="I50" s="36" t="s">
         <v>131</v>
       </c>
@@ -4161,44 +4208,44 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="78"/>
-      <c r="B51" s="72"/>
-      <c r="C51" s="86" t="s">
+      <c r="A51" s="90"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="94" t="s">
         <v>172</v>
       </c>
       <c r="D51" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="81">
+      <c r="E51" s="91">
         <v>10</v>
       </c>
-      <c r="F51" s="86" t="s">
+      <c r="F51" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72" t="s">
+      <c r="G51" s="75"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="J51" s="72"/>
+      <c r="J51" s="75"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="78"/>
-      <c r="B52" s="72"/>
-      <c r="C52" s="86"/>
+      <c r="A52" s="90"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="94"/>
       <c r="D52" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E52" s="81"/>
-      <c r="F52" s="86"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="72"/>
+      <c r="E52" s="91"/>
+      <c r="F52" s="94"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="75"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="75"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="78"/>
-      <c r="B53" s="72"/>
+      <c r="A53" s="90"/>
+      <c r="B53" s="75"/>
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="34"/>
@@ -4209,15 +4256,15 @@
       <c r="J53" s="31"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="78"/>
-      <c r="B54" s="72"/>
-      <c r="C54" s="87" t="s">
+      <c r="A54" s="90"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="85" t="s">
         <v>173</v>
       </c>
       <c r="D54" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="E54" s="81">
+      <c r="E54" s="91">
         <v>11</v>
       </c>
       <c r="F54" s="43" t="s">
@@ -4240,76 +4287,66 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="78"/>
-      <c r="B55" s="72"/>
-      <c r="C55" s="88"/>
+      <c r="A55" s="90"/>
+      <c r="B55" s="75"/>
+      <c r="C55" s="87"/>
       <c r="D55" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="E55" s="81"/>
-      <c r="F55" s="86" t="s">
+      <c r="E55" s="91"/>
+      <c r="F55" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72" t="s">
+      <c r="G55" s="75"/>
+      <c r="H55" s="75" t="s">
         <v>175</v>
       </c>
-      <c r="I55" s="72"/>
-      <c r="J55" s="72" t="s">
+      <c r="I55" s="75"/>
+      <c r="J55" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="K55" s="72"/>
+      <c r="K55" s="75"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="78"/>
-      <c r="B56" s="72"/>
+      <c r="A56" s="90"/>
+      <c r="B56" s="75"/>
       <c r="C56" s="43" t="s">
         <v>66</v>
       </c>
       <c r="D56" s="33"/>
       <c r="E56" s="35"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="72"/>
-      <c r="J56" s="72"/>
-      <c r="K56" s="72"/>
+      <c r="F56" s="94"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="75"/>
+      <c r="I56" s="75"/>
+      <c r="J56" s="75"/>
+      <c r="K56" s="75"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="78"/>
-      <c r="B57" s="72"/>
-      <c r="C57" s="86" t="s">
+      <c r="A57" s="90"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="94" t="s">
         <v>174</v>
       </c>
       <c r="D57" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E57" s="81">
+      <c r="E57" s="91">
         <v>12</v>
       </c>
-      <c r="F57" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="G57" s="25" t="s">
-        <v>178</v>
-      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="78"/>
-      <c r="B58" s="72"/>
-      <c r="C58" s="86"/>
+      <c r="A58" s="90"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="94"/>
       <c r="D58" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E58" s="81"/>
-      <c r="F58" s="86" t="s">
-        <v>135</v>
-      </c>
-      <c r="G58" s="72"/>
+      <c r="E58" s="91"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="78"/>
-      <c r="B59" s="72"/>
+      <c r="A59" s="90"/>
+      <c r="B59" s="75"/>
       <c r="C59" s="33"/>
       <c r="D59" s="33"/>
       <c r="E59" s="34"/>
@@ -4319,46 +4356,56 @@
       <c r="I59" s="48"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="78"/>
-      <c r="B60" s="72"/>
-      <c r="C60" s="86" t="s">
+      <c r="A60" s="90"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="94" t="s">
         <v>176</v>
       </c>
       <c r="D60" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="E60" s="81">
+      <c r="E60" s="91">
         <v>13</v>
       </c>
+      <c r="F60" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="G60" s="67" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="78"/>
-      <c r="B61" s="72"/>
-      <c r="C61" s="86"/>
+      <c r="A61" s="90"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="94"/>
       <c r="D61" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="E61" s="81"/>
+      <c r="E61" s="91"/>
+      <c r="F61" s="94" t="s">
+        <v>197</v>
+      </c>
+      <c r="G61" s="75"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="78"/>
-      <c r="B62" s="72"/>
+      <c r="A62" s="90"/>
+      <c r="B62" s="75"/>
       <c r="C62" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="D62" s="108"/>
-      <c r="E62" s="112"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="71"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="78"/>
-      <c r="B63" s="72"/>
-      <c r="C63" s="86" t="s">
+      <c r="A63" s="90"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="94" t="s">
         <v>186</v>
       </c>
       <c r="D63" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E63" s="81">
+      <c r="E63" s="91">
         <v>14</v>
       </c>
       <c r="F63" s="44" t="s">
@@ -4367,125 +4414,201 @@
       <c r="G63" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="H63" s="107"/>
+      <c r="H63" s="68"/>
       <c r="I63" s="63"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="78"/>
-      <c r="B64" s="72"/>
-      <c r="C64" s="86"/>
+      <c r="A64" s="90"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="94"/>
       <c r="D64" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E64" s="81"/>
-      <c r="F64" s="86" t="s">
+      <c r="E64" s="91"/>
+      <c r="F64" s="94" t="s">
         <v>194</v>
       </c>
-      <c r="G64" s="72"/>
-      <c r="H64" s="69"/>
-      <c r="I64" s="69"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="78"/>
-      <c r="B65" s="72"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="81"/>
+      <c r="I64" s="81"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="90"/>
+      <c r="B65" s="75"/>
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
       <c r="E65" s="35"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="78"/>
-      <c r="B66" s="72"/>
-      <c r="C66" s="86" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="90"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="94" t="s">
         <v>187</v>
       </c>
       <c r="D66" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="E66" s="81">
+      <c r="E66" s="91">
         <v>15</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="78"/>
-      <c r="B67" s="72"/>
-      <c r="C67" s="86"/>
+      <c r="F66" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="G66" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="90"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="94"/>
       <c r="D67" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="E67" s="81"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="104" t="s">
+      <c r="E67" s="91"/>
+      <c r="F67" s="94" t="s">
+        <v>135</v>
+      </c>
+      <c r="G67" s="75"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="84" t="s">
         <v>195</v>
       </c>
-      <c r="B68" s="87"/>
+      <c r="B68" s="85"/>
       <c r="C68" s="43" t="s">
         <v>196</v>
       </c>
       <c r="D68" s="33"/>
       <c r="E68" s="35"/>
-      <c r="F68" s="87" t="s">
+      <c r="F68" s="85" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="113"/>
-      <c r="B69" s="88"/>
-      <c r="C69" s="72" t="s">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="86"/>
+      <c r="B69" s="87"/>
+      <c r="C69" s="75" t="s">
         <v>188</v>
       </c>
       <c r="D69" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E69" s="81">
+      <c r="E69" s="91">
         <v>16</v>
       </c>
-      <c r="F69" s="88"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="113"/>
-      <c r="B70" s="88"/>
-      <c r="C70" s="72"/>
+      <c r="F69" s="87"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="86"/>
+      <c r="B70" s="87"/>
+      <c r="C70" s="75"/>
       <c r="D70" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E70" s="81"/>
-      <c r="F70" s="88"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="113"/>
-      <c r="B71" s="88"/>
+      <c r="E70" s="91"/>
+      <c r="F70" s="87"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="86"/>
+      <c r="B71" s="87"/>
       <c r="C71" s="33"/>
       <c r="D71" s="33"/>
       <c r="E71" s="35"/>
-      <c r="F71" s="88"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="113"/>
-      <c r="B72" s="88"/>
-      <c r="C72" s="87" t="s">
+      <c r="F71" s="87"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="86"/>
+      <c r="B72" s="87"/>
+      <c r="C72" s="85" t="s">
         <v>189</v>
       </c>
       <c r="D72" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="E72" s="81">
+      <c r="E72" s="91">
         <v>17</v>
       </c>
-      <c r="F72" s="88"/>
-    </row>
-    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="114"/>
-      <c r="B73" s="115"/>
-      <c r="C73" s="115"/>
+      <c r="F72" s="87"/>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="88"/>
+      <c r="B73" s="89"/>
+      <c r="C73" s="89"/>
       <c r="D73" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="E73" s="103"/>
+      <c r="E73" s="92"/>
       <c r="F73" s="93"/>
     </row>
   </sheetData>
-  <mergeCells count="81">
+  <mergeCells count="82">
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F32:F37"/>
+    <mergeCell ref="F44:F49"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="A32:B49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A2:B31"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F55:G56"/>
+    <mergeCell ref="F39:G40"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="F42:G43"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="H55:I56"/>
+    <mergeCell ref="F51:H52"/>
+    <mergeCell ref="I51:J52"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="J55:K56"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C42:C43"/>
     <mergeCell ref="A68:B73"/>
     <mergeCell ref="A50:B67"/>
     <mergeCell ref="C72:C73"/>
@@ -4497,76 +4620,11 @@
     <mergeCell ref="E66:E67"/>
     <mergeCell ref="C69:C70"/>
     <mergeCell ref="E69:E70"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="F39:G40"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="F42:G43"/>
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="C60:C61"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F55:G56"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A32:B49"/>
-    <mergeCell ref="F32:F37"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H55:I56"/>
-    <mergeCell ref="F51:H52"/>
-    <mergeCell ref="I51:J52"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F44:F49"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="J55:K56"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A2:B31"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F67:G67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
